--- a/Documents/策划/BOSS设定.xlsx
+++ b/Documents/策划/BOSS设定.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="科学怪人" sheetId="10" r:id="rId1"/>
@@ -14,16 +14,18 @@
     <sheet name="傲慢" sheetId="5" r:id="rId5"/>
     <sheet name="懒惰" sheetId="4" r:id="rId6"/>
     <sheet name="暴怒·" sheetId="2" r:id="rId7"/>
-    <sheet name="贪婪" sheetId="1" r:id="rId8"/>
-    <sheet name="伯爵" sheetId="11" r:id="rId9"/>
-    <sheet name="欲望之神" sheetId="12" r:id="rId10"/>
+    <sheet name="暴食" sheetId="13" r:id="rId8"/>
+    <sheet name="贪婪" sheetId="1" r:id="rId9"/>
+    <sheet name="伯爵" sheetId="11" r:id="rId10"/>
+    <sheet name="欲望之神" sheetId="12" r:id="rId11"/>
+    <sheet name="Sheet2" sheetId="14" r:id="rId12"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="299">
   <si>
     <t>BOSS名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -218,10 +220,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>提高100%的攻速和50%的移速,受到伤害也提高100%,无限时长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>对前方猛烈的敲击三下</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -250,10 +248,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>提高100%的攻速和50%的移速,技能伤血*2,,受到伤害也提高200%,无限时长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>激怒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -262,10 +256,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获得真·狂暴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>如果站着不动,则会伤3格血,击中会有僵直,僵直时长&lt;其攻速</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -760,10 +750,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>在地上刻下懒惰符文的图案,玩家踩上去,踩到的图案会消失,若在规定时间内图案未全部消失,按剩余百分比回复BOSS血量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>玩家移速攻速减半</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1217,6 +1203,58 @@
   </si>
   <si>
     <t>向前突进一段距离,并进行撕咬攻击,并击倒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻略方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罪在于不敢直面已发生的事情,从而选择逃避,放纵自己懒惰。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罪因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直面令自己恐惧的事情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原罪--暴食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吞噬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃去玩家一个BUFF，转为自身的BUFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在地上刻下懒惰符文的图案,玩家踩上去,踩到的图案会消失,若在规定时间内图案未全部消失,则按剩余百分比回复BOSS血量。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高100%的攻速和50%的移速,技能伤血*2,,,无限时长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高100%的攻速和50%的移速,无限时长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自我毁灭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激活狂暴后,自身生命力将随时间消亡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得真·狂暴，自我毁灭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1662,8 +1700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1681,16 +1719,16 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -1698,7 +1736,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -1711,24 +1749,24 @@
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1742,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -1753,13 +1791,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -1767,19 +1805,19 @@
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1787,10 +1825,10 @@
         <v>3</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1798,19 +1836,19 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1818,13 +1856,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1832,13 +1870,13 @@
         <v>6</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1847,7 +1885,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1855,15 +1893,15 @@
         <v>0.7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="3">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1871,7 +1909,7 @@
         <v>0.1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1886,9 +1924,250 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36" style="1" customWidth="1"/>
+    <col min="4" max="4" width="64" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="25.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="28.25" style="1" customWidth="1"/>
+    <col min="9" max="12" width="25.625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="6"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>80</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>81</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>83</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>84</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>85</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>86</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
+        <v>87</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>88</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>89</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="5">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -1907,13 +2186,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -1931,7 +2210,7 @@
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="6" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -1948,10 +2227,10 @@
     </row>
     <row r="8" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="6" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -1959,10 +2238,10 @@
         <v>90</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -1970,10 +2249,10 @@
         <v>91</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1981,10 +2260,10 @@
         <v>92</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1992,10 +2271,10 @@
         <v>93</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2003,13 +2282,13 @@
         <v>94</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2017,10 +2296,10 @@
         <v>95</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -2036,10 +2315,10 @@
         <v>96</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2055,10 +2334,10 @@
         <v>97</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2066,13 +2345,13 @@
         <v>98</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2083,7 +2362,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2091,7 +2370,7 @@
         <v>0.9</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2099,7 +2378,7 @@
         <v>0.7</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2107,7 +2386,7 @@
         <v>0.5</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2115,13 +2394,28 @@
         <v>0.3</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2148,13 +2442,13 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2162,7 +2456,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2175,17 +2469,17 @@
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2193,13 +2487,13 @@
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2207,10 +2501,10 @@
         <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2218,13 +2512,13 @@
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2232,10 +2526,10 @@
         <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2243,22 +2537,22 @@
         <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2266,16 +2560,16 @@
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2283,10 +2577,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2294,16 +2588,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="21" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2311,16 +2605,16 @@
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="24" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2328,10 +2622,10 @@
         <v>19</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
@@ -2339,7 +2633,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
@@ -2347,7 +2641,7 @@
         <v>0.7</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
@@ -2355,7 +2649,7 @@
         <v>0.3</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2370,7 +2664,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2387,13 +2681,13 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2401,7 +2695,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2414,7 +2708,7 @@
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2428,15 +2722,15 @@
         <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2444,13 +2738,13 @@
         <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2458,18 +2752,18 @@
         <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2477,16 +2771,16 @@
         <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2494,22 +2788,22 @@
         <v>24</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2517,13 +2811,13 @@
         <v>25</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2531,7 +2825,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2539,7 +2833,7 @@
         <v>0.7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2547,7 +2841,7 @@
         <v>0.3</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2566,7 +2860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -2585,13 +2879,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2620,10 +2914,10 @@
         <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2631,13 +2925,13 @@
         <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2645,19 +2939,19 @@
         <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2665,20 +2959,20 @@
         <v>33</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2686,10 +2980,10 @@
         <v>34</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2697,10 +2991,10 @@
         <v>35</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2709,7 +3003,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2717,7 +3011,7 @@
         <v>0.9</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2730,7 +3024,7 @@
         <v>0.3</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2746,7 +3040,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -2765,7 +3059,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2803,13 +3097,13 @@
         <v>40</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2817,10 +3111,10 @@
         <v>41</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -2828,23 +3122,23 @@
         <v>42</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2852,20 +3146,20 @@
         <v>43</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2873,10 +3167,10 @@
         <v>44</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2884,10 +3178,10 @@
         <v>45</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2895,10 +3189,10 @@
         <v>46</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2907,7 +3201,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2915,7 +3209,7 @@
         <v>0.9</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2923,7 +3217,7 @@
         <v>0.3</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -2937,8 +3231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2956,13 +3250,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2970,7 +3264,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2981,8 +3275,22 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
@@ -2994,10 +3302,10 @@
         <v>50</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3005,10 +3313,10 @@
         <v>51</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>175</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.15">
@@ -3016,13 +3324,13 @@
         <v>52</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3031,13 +3339,13 @@
         <v>53</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3046,13 +3354,13 @@
         <v>54</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3060,13 +3368,13 @@
         <v>55</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3074,19 +3382,19 @@
         <v>56</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3094,10 +3402,10 @@
         <v>57</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3105,10 +3413,10 @@
         <v>58</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3118,7 +3426,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3126,7 +3434,7 @@
         <v>0.7</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3134,7 +3442,7 @@
         <v>0.3</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3149,10 +3457,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3170,7 +3478,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3184,10 +3492,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3214,10 +3522,10 @@
         <v>35</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3225,13 +3533,13 @@
         <v>61</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3245,7 +3553,7 @@
         <v>37</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3253,13 +3561,13 @@
         <v>63</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3276,10 +3584,10 @@
         <v>38</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>39</v>
+        <v>295</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3287,13 +3595,13 @@
         <v>65</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3301,13 +3609,13 @@
         <v>66</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3315,10 +3623,10 @@
         <v>67</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>47</v>
+        <v>294</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3326,45 +3634,56 @@
         <v>68</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="3">
-        <v>1</v>
+      <c r="A19" s="1">
+        <v>69</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>296</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>49</v>
+        <v>297</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="3">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>276</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="3">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="3">
         <v>0.3</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="C23" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3373,6 +3692,189 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="A16:D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="32.5" customWidth="1"/>
+    <col min="4" max="4" width="58" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>60</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>61</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>62</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>63</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="1"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="1"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="1"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="1"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
@@ -3395,7 +3897,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -3445,7 +3947,7 @@
         <v>71</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -3459,7 +3961,7 @@
         <v>72</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>9</v>
@@ -3473,7 +3975,7 @@
         <v>73</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>15</v>
@@ -3578,247 +4080,6 @@
       </c>
       <c r="C22" s="1" t="s">
         <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="36" style="1" customWidth="1"/>
-    <col min="4" max="4" width="64" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="25.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="28.25" style="1" customWidth="1"/>
-    <col min="9" max="12" width="25.625" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="6"/>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
-        <v>80</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
-        <v>81</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="1">
-        <v>83</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1">
-        <v>84</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="1">
-        <v>85</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1">
-        <v>86</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="1">
-        <v>87</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="6"/>
-    </row>
-    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="1">
-        <v>88</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1">
-        <v>89</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="5">
-        <v>1</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/策划/BOSS设定.xlsx
+++ b/Documents/策划/BOSS设定.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="科学怪人" sheetId="10" r:id="rId1"/>
@@ -372,889 +372,889 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"一起下地狱吧！"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"错的不是我,是这个世界"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"感到恐惧了吗..呵呵.."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若击中,玩家血量-1,BOSS回复1血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物会随机使用获得的道具,或释放获得的技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>克隆并获得玩家使用过的道具,技能（永久)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在正统的爱尔兰民间传说中，出没于沉睡谷的无头骑士通常一手紧牵座下无头黑马的缰绳，另一只手则将自己的头颅抱在腰间。他的形象则被描述为“脸色和肤质像发了霉的乳酪，有一张大嘴和像苍蝇一般的大复眼，而当他遇到人类时会将成桶的血泼在他们身上（Monstropedia，2006）。在一些民间故事里他的座骑亡灵黑马拥有头颅，马头比马身还要长过6码（约5.49米），短耳，以及一双如火焰般燃烧的眼睛。在其它一些传说中无头骑士身边会跟随一群妖怪，如 banshee（中译“班西”），他们乘坐一辆由六匹黑马领头的拉车“ Coiste Bodhar”，用于驱赶马车的鞭子则由人类的脊髓作成。但是，无头骑士可以用于说话的力量极其有限，并且每次出巡他只有一次开口的机会，而在这仅有的机会中他会呼唤将死之人的名字并将其灵魂带走。</t>
+  </si>
+  <si>
+    <t>无头骑士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据玩家的方向,进行3段长距离的移动,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对途中生物造成1点伤害,并强制向前位移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在5秒内受到伤害大于X点时,释放‘无尽毁灭’</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS身后有3个他所珍惜的珠宝,玩家每破坏一个BOSS叠加一层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活之力/馈赠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动速度提高100%且不受控制技能影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀刃共鸣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动(身体）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋风击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转挥舞手中的长枪以保护自身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被击中将造成1点伤害并击飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤2把武器于身左和身右，模仿自己动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蹄踢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用长枪攻击面前敌人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当玩家位于其身后黑马会用蹄子将其踢飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动(头)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动(头)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漂浮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不受地形影响,移速提高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喷火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向前喷出火柱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不死</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果头还在则死不了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斩首</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对BOSS范围X码内的生物进行圆弧斩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被击中玩家则身体与头分离,玩家操控头,身体会跟随着头,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受击部位变为身体和头</t>
+  </si>
+  <si>
+    <t>旋风击,刺击,蹄踢,马术,不死</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放自己的头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发分离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涅槃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞羽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向四周发射自己的羽毛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科学怪人（科学）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原罪--懒惰Lazy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10s不移动,自伤1血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻魔之眼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪念&lt;&lt;圣斗士星矢&gt;&gt;"凤凰幻魔拳"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将玩家置于一个虚拟的房间中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击败全部小怪才可出幻境,血量真实扣除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛋有生命值,每次受伤会以其为中心,释放火圈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火圈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以己为中心释放一个逐渐变大的火环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碰到-1血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰吐息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以自己和玩家为直线连续释放3发火球,Xs后爆炸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在爆炸处产生3只小不死鸟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小不死鸟会锁定玩家,若接触,则发生爆炸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该房间为本关卡玩家伤血最多的房间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化身成蛋,在5/7/9秒内重新孵化成不死鸟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一次性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涅槃,飞羽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>啄击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通攻击,无效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得火圈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发幻魔之眼,获得火焰吐息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烈焰不死鸟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲锋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撕咬攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对前方进行撕咬（1到3下）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利爪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抬起爪子,向前方抓击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤血1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每下撕咬伤血1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血之气息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家每受一次伤害,三头犬攻速提高20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶魔体质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若5s内未受伤害,魔犬会舔舐伤口,每2s恢复1点血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲锋,撕咬攻击,利爪,血之气息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶魔体质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分裂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分成3头单头犬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一次性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发分裂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单头犬具有血之气息,利爪,撕咬攻击,冲锋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家移速攻速减半</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砸中减一血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对全屏幕生命体造成1点伤害,无法闪躲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每隔10s触发一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百万敲击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向前一道冲击波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击倒效果,伤一血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抵挡5点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每5秒触发一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>别打扰我！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机落下X块石头，位置随机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以自己为圆心释放冲击环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次击中,击退,第二次击中,击倒.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给予玩家一个3血护盾,在规定时间内不消失则移速/攻速-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗜睡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若血量在30%以上则进入睡眠状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颓靡光环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天降陨石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大地符文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颓靡光环，天降陨石，大地符文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦魇护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦魇护盾，岩石弹幕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百万敲击,护盾,别打扰我,失去梦魇护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一次性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有属性-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一下横击,一下竖击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>横击带硬直,竖击带击倒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>突然出现在玩家身后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伯爵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仆人们,别劳烦我动手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家将面临一堆看似弱小的杂兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂兵有BUFF:攻击力攻速移速血量提高200%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封印</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被傲慢击中,3s内无法攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变成混乱属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔑视光环,触发仆人们,别劳烦我动手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切割,闪现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂兵的血算在boss中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在被击中的位置留下一个幻影，1s后爆炸，自己移动到4个魔法阵之一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咏唱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4个魔法阵对应4个欲望类型,每个魔法阵会涌出相应类型的怪物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>觉醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击范围变大,伤害*2，移速-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆炸伤血1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向前方发出一串飓风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若被击中，则被吹到房间最角落</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔神枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害为1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>靠近哪个魔法阵,相应属性为一半</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邪能冲击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向前发射3波3道邪能火球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咏唱,幻影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杖击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近战攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔神击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害为1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强风,杖击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法阵之缚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据玩家位置,赐予魔法阵之缚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邪能冲击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欲望之神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤两块棱剑,迅速戳向玩家位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>觉醒,获得魔神枪和魔神击,失去杖击,邪能冲击，强风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害为1,击倒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换形态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>傲慢形态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪现,切割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>懒惰形态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岩石弹幕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百万敲击，岩石弹幕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴怒形态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无尽毁灭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三段斩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无尽毁灭,三段斩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死之力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漩涡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死之力,漩涡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪婪形态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自我化身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚空放逐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤神之柱,刺向玩家所在地面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺到玩家则玩家伤2血,未刺到地表被破坏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔火追击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每0.5s会有1团火焰从玩家脚下冒出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将玩家放逐到虚空，玩家将面对邪恶的自身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵魂灾变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽取玩家随机5块欲望精华,化身为相应怪物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>傲慢光环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔑视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若玩家位于傲慢背面3s,则触发晕眩2s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所经过的地方会留下1道邪能火痕,持续Xs消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邪能痕迹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得无尽毁灭,邪能痕迹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得仆从降临，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地狱三头犬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实力取决于玩家拥有精华数,影响血量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自我化身,魔火追击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发灵魂灾变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心灵尖刺，切换形态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心灵尖刺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每隔一段时间,boss会切换形态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放心中的魔神,类似须佐能乎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向前突进一段距离,并进行撕咬攻击,并击倒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻略方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罪在于不敢直面已发生的事情,从而选择逃避,放纵自己懒惰。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罪因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直面令自己恐惧的事情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原罪--暴食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吞噬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃去玩家一个BUFF，转为自身的BUFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在地上刻下懒惰符文的图案,玩家踩上去,踩到的图案会消失,若在规定时间内图案未全部消失,则按剩余百分比回复BOSS血量。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高100%的攻速和50%的移速,技能伤血*2,,,无限时长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高100%的攻速和50%的移速,无限时长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自我毁灭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激活狂暴后,自身生命力将随时间消亡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得真·狂暴，自我毁灭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>无名无姓的怪物是弗兰肯斯坦从藏尸间盗来的人体的各个部分拼凑而成的。他的外表是它一切痛苦的根源。世人见它无一不被吓跑或攻击它；而它只能隐藏行迹，终日游离与人类社会之外。在怪物的自述中，对知识的追求不仅是其自身成长经历中不可或缺的部分，而且它与了解自身起源紧密联系起来。自从被弗兰肯斯坦遗弃后，身形高大、相貌丑陋的怪物在处处充满敌意的社会中举步维艰。可以说在最早的阶段他对世界的认知是被动的体验和接受，没有得到任何人的关照和监护。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>简介</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>语音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"一起下地狱吧！"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"错的不是我,是这个世界"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"感到恐惧了吗..呵呵.."</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若击中,玩家血量-1,BOSS回复1血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物会随机使用获得的道具,或释放获得的技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>克隆并获得玩家使用过的道具,技能（永久)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在正统的爱尔兰民间传说中，出没于沉睡谷的无头骑士通常一手紧牵座下无头黑马的缰绳，另一只手则将自己的头颅抱在腰间。他的形象则被描述为“脸色和肤质像发了霉的乳酪，有一张大嘴和像苍蝇一般的大复眼，而当他遇到人类时会将成桶的血泼在他们身上（Monstropedia，2006）。在一些民间故事里他的座骑亡灵黑马拥有头颅，马头比马身还要长过6码（约5.49米），短耳，以及一双如火焰般燃烧的眼睛。在其它一些传说中无头骑士身边会跟随一群妖怪，如 banshee（中译“班西”），他们乘坐一辆由六匹黑马领头的拉车“ Coiste Bodhar”，用于驱赶马车的鞭子则由人类的脊髓作成。但是，无头骑士可以用于说话的力量极其有限，并且每次出巡他只有一次开口的机会，而在这仅有的机会中他会呼唤将死之人的名字并将其灵魂带走。</t>
-  </si>
-  <si>
-    <t>无头骑士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>简介</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据玩家的方向,进行3段长距离的移动,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对途中生物造成1点伤害,并强制向前位移</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在5秒内受到伤害大于X点时,释放‘无尽毁灭’</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOSS身后有3个他所珍惜的珠宝,玩家每破坏一个BOSS叠加一层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活之力/馈赠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动速度提高100%且不受控制技能影响</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刀刃共鸣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主动(身体）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>旋风击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>旋转挥舞手中的长枪以保护自身</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被击中将造成1点伤害并击飞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤2把武器于身左和身右，模仿自己动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刺击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蹄踢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1点伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用长枪攻击面前敌人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当玩家位于其身后黑马会用蹄子将其踢飞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主动(头)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被动(头)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>漂浮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不受地形影响,移速提高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>喷火</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>向前喷出火柱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不死</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果头还在则死不了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斩首</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对BOSS范围X码内的生物进行圆弧斩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被击中玩家则身体与头分离,玩家操控头,身体会跟随着头,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>受击部位变为身体和头</t>
-  </si>
-  <si>
-    <t>旋风击,刺击,蹄踢,马术,不死</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分离</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>释放自己的头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发分离</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>涅槃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞羽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>向四周发射自己的羽毛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科学怪人（科学）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原罪--懒惰Lazy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10s不移动,自伤1血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幻魔之眼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纪念&lt;&lt;圣斗士星矢&gt;&gt;"凤凰幻魔拳"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将玩家置于一个虚拟的房间中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>击败全部小怪才可出幻境,血量真实扣除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蛋有生命值,每次受伤会以其为中心,释放火圈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火圈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以己为中心释放一个逐渐变大的火环</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>碰到-1血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火焰吐息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以自己和玩家为直线连续释放3发火球,Xs后爆炸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在爆炸处产生3只小不死鸟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小不死鸟会锁定玩家,若接触,则发生爆炸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该房间为本关卡玩家伤血最多的房间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>化身成蛋,在5/7/9秒内重新孵化成不死鸟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一次性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>涅槃,飞羽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>啄击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通攻击,无效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得火圈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发幻魔之眼,获得火焰吐息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烈焰不死鸟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冲锋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撕咬攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对前方进行撕咬（1到3下）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>利爪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抬起爪子,向前方抓击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤血1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每下撕咬伤血1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血之气息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家每受一次伤害,三头犬攻速提高20%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恶魔体质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若5s内未受伤害,魔犬会舔舐伤口,每2s恢复1点血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冲锋,撕咬攻击,利爪,血之气息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恶魔体质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分裂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分成3头单头犬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一次性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发分裂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单头犬具有血之气息,利爪,撕咬攻击,冲锋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家移速攻速减半</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>砸中减一血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对全屏幕生命体造成1点伤害,无法闪躲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每隔10s触发一次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百万敲击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>向前一道冲击波</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>击倒效果,伤一血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>护盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抵挡5点伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每5秒触发一次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>别打扰我！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机落下X块石头，位置随机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以自己为圆心释放冲击环</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一次击中,击退,第二次击中,击倒.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给予玩家一个3血护盾,在规定时间内不消失则移速/攻速-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嗜睡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若血量在30%以上则进入睡眠状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>颓靡光环</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天降陨石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大地符文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>颓靡光环，天降陨石，大地符文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梦魇护盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梦魇护盾，岩石弹幕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百万敲击,护盾,别打扰我,失去梦魇护盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一次性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>变身</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有属性-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>切割</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一下横击,一下竖击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>横击带硬直,竖击带击倒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>突然出现在玩家身后</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伯爵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仆人们,别劳烦我动手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家将面临一堆看似弱小的杂兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杂兵有BUFF:攻击力攻速移速血量提高200%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>封印</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被傲慢击中,3s内无法攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>变成混乱属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击力*2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蔑视光环,触发仆人们,别劳烦我动手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>切割,闪现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杂兵的血算在boss中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在被击中的位置留下一个幻影，1s后爆炸，自己移动到4个魔法阵之一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>咏唱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4个魔法阵对应4个欲望类型,每个魔法阵会涌出相应类型的怪物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>强风</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>觉醒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击范围变大,伤害*2，移速-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆炸伤血1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>向前方发出一串飓风</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若被击中，则被吹到房间最角落</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔神枪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害为1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>靠近哪个魔法阵,相应属性为一半</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邪能冲击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>向前发射3波3道邪能火球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>咏唱,幻影</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杖击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>近战攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔神击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害为1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>强风,杖击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔法阵之缚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据玩家位置,赐予魔法阵之缚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邪能冲击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欲望之神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤两块棱剑,迅速戳向玩家位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>觉醒,获得魔神枪和魔神击,失去杖击,邪能冲击，强风</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害为1,击倒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>切换形态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>傲慢形态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪现,切割</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>懒惰形态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>岩石弹幕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百万敲击，岩石弹幕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴怒形态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无尽毁灭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三段斩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无尽毁灭,三段斩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>死之力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>漩涡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>死之力,漩涡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贪婪形态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自我化身</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚空放逐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤神之柱,刺向玩家所在地面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刺到玩家则玩家伤2血,未刺到地表被破坏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔火追击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每0.5s会有1团火焰从玩家脚下冒出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将玩家放逐到虚空，玩家将面对邪恶的自身</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵魂灾变</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽取玩家随机5块欲望精华,化身为相应怪物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>傲慢光环</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蔑视</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若玩家位于傲慢背面3s,则触发晕眩2s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所经过的地方会留下1道邪能火痕,持续Xs消失</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邪能痕迹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得无尽毁灭,邪能痕迹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得仆从降临，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地狱三头犬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实力取决于玩家拥有精华数,影响血量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自我化身,魔火追击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发灵魂灾变</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>心灵尖刺，切换形态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>心灵尖刺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每隔一段时间,boss会切换形态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>释放心中的魔神,类似须佐能乎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>向前突进一段距离,并进行撕咬攻击,并击倒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻略方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>罪在于不敢直面已发生的事情,从而选择逃避,放纵自己懒惰。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>罪因</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>直面令自己恐惧的事情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原罪--暴食</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吞噬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吃去玩家一个BUFF，转为自身的BUFF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在地上刻下懒惰符文的图案,玩家踩上去,踩到的图案会消失,若在规定时间内图案未全部消失,则按剩余百分比回复BOSS血量。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提高100%的攻速和50%的移速,技能伤血*2,,,无限时长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提高100%的攻速和50%的移速,无限时长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自我毁灭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>激活狂暴后,自身生命力将随时间消亡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得真·狂暴，自我毁灭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1700,7 +1700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -1719,13 +1719,13 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>53</v>
@@ -1749,24 +1749,24 @@
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>77</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1811,7 +1811,7 @@
         <v>71</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1859,10 +1859,10 @@
         <v>57</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1898,7 +1898,7 @@
     </row>
     <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="3">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>75</v>
@@ -1945,13 +1945,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -1987,10 +1987,10 @@
         <v>80</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -1998,13 +1998,13 @@
         <v>81</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2012,13 +2012,13 @@
         <v>83</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2026,13 +2026,13 @@
         <v>84</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>228</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2040,13 +2040,13 @@
         <v>85</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>231</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2054,13 +2054,13 @@
         <v>86</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2076,13 +2076,13 @@
         <v>87</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2101,10 +2101,10 @@
         <v>20</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2112,13 +2112,13 @@
         <v>89</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>236</v>
-      </c>
       <c r="D20" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2129,7 +2129,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2137,7 +2137,7 @@
         <v>0.9</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2145,7 +2145,7 @@
         <v>0.7</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2153,7 +2153,7 @@
         <v>0.3</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -2186,13 +2186,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2210,7 +2210,7 @@
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -2227,10 +2227,10 @@
     </row>
     <row r="8" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2238,10 +2238,10 @@
         <v>90</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2249,10 +2249,10 @@
         <v>91</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2260,10 +2260,10 @@
         <v>92</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2271,10 +2271,10 @@
         <v>93</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2282,13 +2282,13 @@
         <v>94</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2296,10 +2296,10 @@
         <v>95</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -2315,10 +2315,10 @@
         <v>96</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2334,10 +2334,10 @@
         <v>97</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2345,13 +2345,13 @@
         <v>98</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2362,7 +2362,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2370,7 +2370,7 @@
         <v>0.9</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2378,7 +2378,7 @@
         <v>0.7</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2386,7 +2386,7 @@
         <v>0.5</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2394,7 +2394,7 @@
         <v>0.3</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -2423,7 +2423,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -2442,13 +2442,13 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2456,7 +2456,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2469,17 +2469,17 @@
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2487,13 +2487,13 @@
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2501,10 +2501,10 @@
         <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2512,13 +2512,13 @@
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2526,10 +2526,10 @@
         <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2537,16 +2537,16 @@
         <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2560,16 +2560,16 @@
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2577,10 +2577,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2588,16 +2588,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="21" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2605,16 +2605,16 @@
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="24" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2622,10 +2622,10 @@
         <v>19</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
@@ -2633,7 +2633,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
@@ -2641,7 +2641,7 @@
         <v>0.7</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
@@ -2649,7 +2649,7 @@
         <v>0.3</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2663,7 +2663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -2681,13 +2681,13 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2695,7 +2695,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2708,7 +2708,7 @@
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2722,15 +2722,15 @@
         <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2738,13 +2738,13 @@
         <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2752,18 +2752,18 @@
         <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2771,16 +2771,16 @@
         <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2788,22 +2788,22 @@
         <v>24</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2811,13 +2811,13 @@
         <v>25</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2825,7 +2825,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2833,7 +2833,7 @@
         <v>0.7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2841,7 +2841,7 @@
         <v>0.3</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2879,13 +2879,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2914,10 +2914,10 @@
         <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2925,13 +2925,13 @@
         <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2939,19 +2939,19 @@
         <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2959,20 +2959,20 @@
         <v>33</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2980,10 +2980,10 @@
         <v>34</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2991,10 +2991,10 @@
         <v>35</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3003,7 +3003,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3011,7 +3011,7 @@
         <v>0.9</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3024,7 +3024,7 @@
         <v>0.3</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3059,7 +3059,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3097,13 +3097,13 @@
         <v>40</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3111,10 +3111,10 @@
         <v>41</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -3122,23 +3122,23 @@
         <v>42</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3146,20 +3146,20 @@
         <v>43</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3167,10 +3167,10 @@
         <v>44</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3178,10 +3178,10 @@
         <v>45</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3189,10 +3189,10 @@
         <v>46</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3201,7 +3201,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3209,7 +3209,7 @@
         <v>0.9</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3217,7 +3217,7 @@
         <v>0.3</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -3250,13 +3250,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3264,7 +3264,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3277,18 +3277,18 @@
     </row>
     <row r="4" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3302,10 +3302,10 @@
         <v>50</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3313,10 +3313,10 @@
         <v>51</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.15">
@@ -3324,13 +3324,13 @@
         <v>52</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3339,13 +3339,13 @@
         <v>53</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3354,13 +3354,13 @@
         <v>54</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3368,13 +3368,13 @@
         <v>55</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3382,19 +3382,19 @@
         <v>56</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3402,10 +3402,10 @@
         <v>57</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3413,10 +3413,10 @@
         <v>58</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3426,7 +3426,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3434,7 +3434,7 @@
         <v>0.7</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3442,7 +3442,7 @@
         <v>0.3</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3459,7 +3459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -3478,7 +3478,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3533,13 +3533,13 @@
         <v>61</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3561,7 +3561,7 @@
         <v>63</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>51</v>
@@ -3584,10 +3584,10 @@
         <v>38</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3609,10 +3609,10 @@
         <v>66</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>44</v>
@@ -3626,7 +3626,7 @@
         <v>45</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3637,7 +3637,7 @@
         <v>46</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3645,10 +3645,10 @@
         <v>69</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3664,7 +3664,7 @@
         <v>0.9</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3672,7 +3672,7 @@
         <v>0.7</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3680,7 +3680,7 @@
         <v>0.3</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3707,13 +3707,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D1" s="1"/>
     </row>
@@ -3727,7 +3727,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>6</v>
@@ -3768,10 +3768,10 @@
         <v>60</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>292</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -3897,7 +3897,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -3947,7 +3947,7 @@
         <v>71</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -3961,7 +3961,7 @@
         <v>72</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>9</v>
@@ -3975,7 +3975,7 @@
         <v>73</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>15</v>

--- a/Documents/策划/BOSS设定.xlsx
+++ b/Documents/策划/BOSS设定.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="303">
   <si>
     <t>BOSS名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -296,965 +296,981 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>畸变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转换光波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（本关卡）使玩家的属性和种族随机改变,总值不变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烂肠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次受伤会在地上留下一道淤泥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>站在泥中,移速减慢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自爆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一次性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以自己为中心X码内发生爆炸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若位于爆炸之中,伤一血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身形象改变,行动速度加快50%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向前一道抓击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗜血抓击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗜血抓击,不稳定化合物，知识就是力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转换光波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发畸变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发自爆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"一起下地狱吧！"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"错的不是我,是这个世界"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"感到恐惧了吗..呵呵.."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若击中,玩家血量-1,BOSS回复1血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物会随机使用获得的道具,或释放获得的技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>克隆并获得玩家使用过的道具,技能（永久)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在正统的爱尔兰民间传说中，出没于沉睡谷的无头骑士通常一手紧牵座下无头黑马的缰绳，另一只手则将自己的头颅抱在腰间。他的形象则被描述为“脸色和肤质像发了霉的乳酪，有一张大嘴和像苍蝇一般的大复眼，而当他遇到人类时会将成桶的血泼在他们身上（Monstropedia，2006）。在一些民间故事里他的座骑亡灵黑马拥有头颅，马头比马身还要长过6码（约5.49米），短耳，以及一双如火焰般燃烧的眼睛。在其它一些传说中无头骑士身边会跟随一群妖怪，如 banshee（中译“班西”），他们乘坐一辆由六匹黑马领头的拉车“ Coiste Bodhar”，用于驱赶马车的鞭子则由人类的脊髓作成。但是，无头骑士可以用于说话的力量极其有限，并且每次出巡他只有一次开口的机会，而在这仅有的机会中他会呼唤将死之人的名字并将其灵魂带走。</t>
+  </si>
+  <si>
+    <t>无头骑士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据玩家的方向,进行3段长距离的移动,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对途中生物造成1点伤害,并强制向前位移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在5秒内受到伤害大于X点时,释放‘无尽毁灭’</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS身后有3个他所珍惜的珠宝,玩家每破坏一个BOSS叠加一层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活之力/馈赠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动速度提高100%且不受控制技能影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀刃共鸣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动(身体）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋风击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转挥舞手中的长枪以保护自身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被击中将造成1点伤害并击飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤2把武器于身左和身右，模仿自己动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蹄踢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用长枪攻击面前敌人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当玩家位于其身后黑马会用蹄子将其踢飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动(头)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动(头)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漂浮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不受地形影响,移速提高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喷火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向前喷出火柱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不死</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果头还在则死不了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斩首</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对BOSS范围X码内的生物进行圆弧斩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被击中玩家则身体与头分离,玩家操控头,身体会跟随着头,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受击部位变为身体和头</t>
+  </si>
+  <si>
+    <t>旋风击,刺击,蹄踢,马术,不死</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放自己的头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发分离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涅槃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞羽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向四周发射自己的羽毛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科学怪人（科学）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原罪--懒惰Lazy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10s不移动,自伤1血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻魔之眼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪念&lt;&lt;圣斗士星矢&gt;&gt;"凤凰幻魔拳"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将玩家置于一个虚拟的房间中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击败全部小怪才可出幻境,血量真实扣除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛋有生命值,每次受伤会以其为中心,释放火圈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火圈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以己为中心释放一个逐渐变大的火环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碰到-1血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰吐息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以自己和玩家为直线连续释放3发火球,Xs后爆炸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在爆炸处产生3只小不死鸟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小不死鸟会锁定玩家,若接触,则发生爆炸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该房间为本关卡玩家伤血最多的房间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化身成蛋,在5/7/9秒内重新孵化成不死鸟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一次性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涅槃,飞羽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>啄击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通攻击,无效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得火圈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发幻魔之眼,获得火焰吐息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烈焰不死鸟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲锋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撕咬攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对前方进行撕咬（1到3下）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利爪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抬起爪子,向前方抓击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤血1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每下撕咬伤血1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血之气息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家每受一次伤害,三头犬攻速提高20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶魔体质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若5s内未受伤害,魔犬会舔舐伤口,每2s恢复1点血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲锋,撕咬攻击,利爪,血之气息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶魔体质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分裂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分成3头单头犬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一次性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发分裂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单头犬具有血之气息,利爪,撕咬攻击,冲锋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家移速攻速减半</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砸中减一血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对全屏幕生命体造成1点伤害,无法闪躲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每隔10s触发一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百万敲击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向前一道冲击波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击倒效果,伤一血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抵挡5点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每5秒触发一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>别打扰我！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机落下X块石头，位置随机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以自己为圆心释放冲击环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次击中,击退,第二次击中,击倒.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给予玩家一个3血护盾,在规定时间内不消失则移速/攻速-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗜睡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若血量在30%以上则进入睡眠状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颓靡光环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天降陨石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大地符文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颓靡光环，天降陨石，大地符文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦魇护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦魇护盾，岩石弹幕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百万敲击,护盾,别打扰我,失去梦魇护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一次性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有属性-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一下横击,一下竖击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>横击带硬直,竖击带击倒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>突然出现在玩家身后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伯爵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仆人们,别劳烦我动手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家将面临一堆看似弱小的杂兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂兵有BUFF:攻击力攻速移速血量提高200%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封印</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被傲慢击中,3s内无法攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变成混乱属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔑视光环,触发仆人们,别劳烦我动手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切割,闪现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂兵的血算在boss中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在被击中的位置留下一个幻影，1s后爆炸，自己移动到4个魔法阵之一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咏唱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4个魔法阵对应4个欲望类型,每个魔法阵会涌出相应类型的怪物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>觉醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击范围变大,伤害*2，移速-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆炸伤血1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向前方发出一串飓风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若被击中，则被吹到房间最角落</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔神枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害为1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>靠近哪个魔法阵,相应属性为一半</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邪能冲击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向前发射3波3道邪能火球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咏唱,幻影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杖击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近战攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔神击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害为1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强风,杖击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法阵之缚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据玩家位置,赐予魔法阵之缚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邪能冲击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欲望之神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤两块棱剑,迅速戳向玩家位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>觉醒,获得魔神枪和魔神击,失去杖击,邪能冲击，强风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害为1,击倒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换形态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>傲慢形态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪现,切割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>懒惰形态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岩石弹幕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百万敲击，岩石弹幕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴怒形态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无尽毁灭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三段斩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无尽毁灭,三段斩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死之力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漩涡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死之力,漩涡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪婪形态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自我化身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚空放逐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤神之柱,刺向玩家所在地面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺到玩家则玩家伤2血,未刺到地表被破坏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔火追击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每0.5s会有1团火焰从玩家脚下冒出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将玩家放逐到虚空，玩家将面对邪恶的自身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵魂灾变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽取玩家随机5块欲望精华,化身为相应怪物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>傲慢光环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔑视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若玩家位于傲慢背面3s,则触发晕眩2s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所经过的地方会留下1道邪能火痕,持续Xs消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邪能痕迹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得无尽毁灭,邪能痕迹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得仆从降临，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地狱三头犬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实力取决于玩家拥有精华数,影响血量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自我化身,魔火追击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发灵魂灾变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心灵尖刺，切换形态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心灵尖刺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每隔一段时间,boss会切换形态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放心中的魔神,类似须佐能乎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向前突进一段距离,并进行撕咬攻击,并击倒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻略方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罪在于不敢直面已发生的事情,从而选择逃避,放纵自己懒惰。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罪因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直面令自己恐惧的事情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原罪--暴食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吞噬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃去玩家一个BUFF，转为自身的BUFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在地上刻下懒惰符文的图案,玩家踩上去,踩到的图案会消失,若在规定时间内图案未全部消失,则按剩余百分比回复BOSS血量。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高100%的攻速和50%的移速,技能伤血*2,,,无限时长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高100%的攻速和50%的移速,无限时长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自我毁灭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激活狂暴后,自身生命力将随时间消亡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得真·狂暴，自我毁灭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无名无姓的怪物是弗兰肯斯坦从藏尸间盗来的人体的各个部分拼凑而成的。他的外表是它一切痛苦的根源。世人见它无一不被吓跑或攻击它；而它只能隐藏行迹，终日游离与人类社会之外。在怪物的自述中，对知识的追求不仅是其自身成长经历中不可或缺的部分，而且它与了解自身起源紧密联系起来。自从被弗兰肯斯坦遗弃后，身形高大、相貌丑陋的怪物在处处充满敌意的社会中举步维艰。可以说在最早的阶段他对世界的认知是被动的体验和接受，没有得到任何人的关照和监护。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能溢出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>溢出问题,比如SPD是10,，转换后属性变多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增强技能,若击中赋予2s晕眩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增强该技能,加红圈,加快飞行速度,击中伤害为1,爆炸赋予击飞效果,小怪在玩家位置处出现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>向玩家所在位置扔去一个不稳定化合物</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>畸变</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>可能会触发爆炸,减速,致盲,迟钝,混乱或召唤一个小怪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>转换光波</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（本关卡）使玩家的属性和种族随机改变,总值不变</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烂肠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每次受伤会在地上留下一道淤泥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>站在泥中,移速减慢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自爆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一次性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以自己为中心X码内发生爆炸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若位于爆炸之中,伤一血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自身形象改变,行动速度加快50%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>向前一道抓击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嗜血抓击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嗜血抓击,不稳定化合物，知识就是力量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>转换光波</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发畸变</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发自爆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>简介</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>语音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"一起下地狱吧！"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"错的不是我,是这个世界"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"感到恐惧了吗..呵呵.."</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若击中,玩家血量-1,BOSS回复1血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物会随机使用获得的道具,或释放获得的技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>克隆并获得玩家使用过的道具,技能（永久)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在正统的爱尔兰民间传说中，出没于沉睡谷的无头骑士通常一手紧牵座下无头黑马的缰绳，另一只手则将自己的头颅抱在腰间。他的形象则被描述为“脸色和肤质像发了霉的乳酪，有一张大嘴和像苍蝇一般的大复眼，而当他遇到人类时会将成桶的血泼在他们身上（Monstropedia，2006）。在一些民间故事里他的座骑亡灵黑马拥有头颅，马头比马身还要长过6码（约5.49米），短耳，以及一双如火焰般燃烧的眼睛。在其它一些传说中无头骑士身边会跟随一群妖怪，如 banshee（中译“班西”），他们乘坐一辆由六匹黑马领头的拉车“ Coiste Bodhar”，用于驱赶马车的鞭子则由人类的脊髓作成。但是，无头骑士可以用于说话的力量极其有限，并且每次出巡他只有一次开口的机会，而在这仅有的机会中他会呼唤将死之人的名字并将其灵魂带走。</t>
-  </si>
-  <si>
-    <t>无头骑士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>简介</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据玩家的方向,进行3段长距离的移动,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对途中生物造成1点伤害,并强制向前位移</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在5秒内受到伤害大于X点时,释放‘无尽毁灭’</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOSS身后有3个他所珍惜的珠宝,玩家每破坏一个BOSS叠加一层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活之力/馈赠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动速度提高100%且不受控制技能影响</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刀刃共鸣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主动(身体）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>旋风击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>旋转挥舞手中的长枪以保护自身</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被击中将造成1点伤害并击飞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤2把武器于身左和身右，模仿自己动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刺击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蹄踢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1点伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用长枪攻击面前敌人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当玩家位于其身后黑马会用蹄子将其踢飞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主动(头)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被动(头)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>漂浮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不受地形影响,移速提高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>喷火</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>向前喷出火柱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不死</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果头还在则死不了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斩首</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对BOSS范围X码内的生物进行圆弧斩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被击中玩家则身体与头分离,玩家操控头,身体会跟随着头,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>受击部位变为身体和头</t>
-  </si>
-  <si>
-    <t>旋风击,刺击,蹄踢,马术,不死</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分离</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>释放自己的头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发分离</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>涅槃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞羽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>向四周发射自己的羽毛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科学怪人（科学）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原罪--懒惰Lazy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10s不移动,自伤1血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幻魔之眼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纪念&lt;&lt;圣斗士星矢&gt;&gt;"凤凰幻魔拳"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将玩家置于一个虚拟的房间中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>击败全部小怪才可出幻境,血量真实扣除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蛋有生命值,每次受伤会以其为中心,释放火圈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火圈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以己为中心释放一个逐渐变大的火环</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>碰到-1血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火焰吐息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以自己和玩家为直线连续释放3发火球,Xs后爆炸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在爆炸处产生3只小不死鸟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小不死鸟会锁定玩家,若接触,则发生爆炸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该房间为本关卡玩家伤血最多的房间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>化身成蛋,在5/7/9秒内重新孵化成不死鸟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一次性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>涅槃,飞羽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>啄击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通攻击,无效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得火圈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发幻魔之眼,获得火焰吐息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烈焰不死鸟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冲锋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撕咬攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对前方进行撕咬（1到3下）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>利爪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抬起爪子,向前方抓击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤血1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每下撕咬伤血1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血之气息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家每受一次伤害,三头犬攻速提高20%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恶魔体质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若5s内未受伤害,魔犬会舔舐伤口,每2s恢复1点血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冲锋,撕咬攻击,利爪,血之气息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恶魔体质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分裂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分成3头单头犬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一次性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发分裂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单头犬具有血之气息,利爪,撕咬攻击,冲锋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家移速攻速减半</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>砸中减一血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对全屏幕生命体造成1点伤害,无法闪躲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每隔10s触发一次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百万敲击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>向前一道冲击波</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>击倒效果,伤一血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>护盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抵挡5点伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每5秒触发一次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>别打扰我！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机落下X块石头，位置随机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以自己为圆心释放冲击环</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一次击中,击退,第二次击中,击倒.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给予玩家一个3血护盾,在规定时间内不消失则移速/攻速-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嗜睡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若血量在30%以上则进入睡眠状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>颓靡光环</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天降陨石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大地符文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>颓靡光环，天降陨石，大地符文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梦魇护盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梦魇护盾，岩石弹幕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百万敲击,护盾,别打扰我,失去梦魇护盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一次性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>变身</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有属性-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>切割</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一下横击,一下竖击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>横击带硬直,竖击带击倒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>突然出现在玩家身后</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伯爵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仆人们,别劳烦我动手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家将面临一堆看似弱小的杂兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杂兵有BUFF:攻击力攻速移速血量提高200%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>封印</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被傲慢击中,3s内无法攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>变成混乱属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击力*2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蔑视光环,触发仆人们,别劳烦我动手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>切割,闪现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杂兵的血算在boss中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在被击中的位置留下一个幻影，1s后爆炸，自己移动到4个魔法阵之一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>咏唱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4个魔法阵对应4个欲望类型,每个魔法阵会涌出相应类型的怪物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>强风</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>觉醒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击范围变大,伤害*2，移速-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆炸伤血1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>向前方发出一串飓风</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若被击中，则被吹到房间最角落</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔神枪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害为1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>靠近哪个魔法阵,相应属性为一半</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邪能冲击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>向前发射3波3道邪能火球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>咏唱,幻影</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杖击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>近战攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔神击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害为1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>强风,杖击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔法阵之缚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据玩家位置,赐予魔法阵之缚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邪能冲击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欲望之神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤两块棱剑,迅速戳向玩家位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>觉醒,获得魔神枪和魔神击,失去杖击,邪能冲击，强风</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害为1,击倒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>切换形态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>傲慢形态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪现,切割</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>懒惰形态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>岩石弹幕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百万敲击，岩石弹幕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴怒形态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无尽毁灭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三段斩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无尽毁灭,三段斩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>死之力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>漩涡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>死之力,漩涡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贪婪形态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自我化身</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚空放逐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤神之柱,刺向玩家所在地面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刺到玩家则玩家伤2血,未刺到地表被破坏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔火追击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每0.5s会有1团火焰从玩家脚下冒出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将玩家放逐到虚空，玩家将面对邪恶的自身</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵魂灾变</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽取玩家随机5块欲望精华,化身为相应怪物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>傲慢光环</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蔑视</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若玩家位于傲慢背面3s,则触发晕眩2s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所经过的地方会留下1道邪能火痕,持续Xs消失</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邪能痕迹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得无尽毁灭,邪能痕迹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得仆从降临，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地狱三头犬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实力取决于玩家拥有精华数,影响血量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自我化身,魔火追击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发灵魂灾变</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>心灵尖刺，切换形态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>心灵尖刺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每隔一段时间,boss会切换形态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>释放心中的魔神,类似须佐能乎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>向前突进一段距离,并进行撕咬攻击,并击倒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻略方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>罪在于不敢直面已发生的事情,从而选择逃避,放纵自己懒惰。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>罪因</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>直面令自己恐惧的事情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原罪--暴食</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吞噬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吃去玩家一个BUFF，转为自身的BUFF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在地上刻下懒惰符文的图案,玩家踩上去,踩到的图案会消失,若在规定时间内图案未全部消失,则按剩余百分比回复BOSS血量。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提高100%的攻速和50%的移速,技能伤血*2,,,无限时长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提高100%的攻速和50%的移速,无限时长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自我毁灭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>激活狂暴后,自身生命力将随时间消亡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得真·狂暴，自我毁灭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无名无姓的怪物是弗兰肯斯坦从藏尸间盗来的人体的各个部分拼凑而成的。他的外表是它一切痛苦的根源。世人见它无一不被吓跑或攻击它；而它只能隐藏行迹，终日游离与人类社会之外。在怪物的自述中，对知识的追求不仅是其自身成长经历中不可或缺的部分，而且它与了解自身起源紧密联系起来。自从被弗兰肯斯坦遗弃后，身形高大、相貌丑陋的怪物在处处充满敌意的社会中举步维艰。可以说在最早的阶段他对世界的认知是被动的体验和接受，没有得到任何人的关照和监护。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1698,10 +1714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1710,28 +1726,28 @@
     <col min="2" max="2" width="16.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="43.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="49.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="61.375" style="1" customWidth="1"/>
     <col min="6" max="7" width="25.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="28.25" style="1" customWidth="1"/>
     <col min="9" max="12" width="25.625" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1739,7 +1755,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1747,46 +1763,52 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -1794,59 +1816,65 @@
         <v>55</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>58</v>
+        <v>301</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>302</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>3</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>56</v>
       </c>
@@ -1859,10 +1887,10 @@
         <v>57</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1870,13 +1898,13 @@
         <v>6</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1885,7 +1913,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1893,7 +1921,7 @@
         <v>0.7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1901,7 +1929,7 @@
         <v>0.4</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1909,7 +1937,7 @@
         <v>0.1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1945,13 +1973,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -1987,10 +2015,10 @@
         <v>80</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -1998,13 +2026,13 @@
         <v>81</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2012,13 +2040,13 @@
         <v>83</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2026,13 +2054,13 @@
         <v>84</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2040,13 +2068,13 @@
         <v>85</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2054,13 +2082,13 @@
         <v>86</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2076,13 +2104,13 @@
         <v>87</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2101,10 +2129,10 @@
         <v>20</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2112,13 +2140,13 @@
         <v>89</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2129,7 +2157,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2137,7 +2165,7 @@
         <v>0.9</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2145,7 +2173,7 @@
         <v>0.7</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2153,7 +2181,7 @@
         <v>0.3</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -2186,13 +2214,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2210,7 +2238,7 @@
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -2227,10 +2255,10 @@
     </row>
     <row r="8" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2238,10 +2266,10 @@
         <v>90</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2249,10 +2277,10 @@
         <v>91</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2260,10 +2288,10 @@
         <v>92</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2271,10 +2299,10 @@
         <v>93</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2282,13 +2310,13 @@
         <v>94</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2296,10 +2324,10 @@
         <v>95</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -2315,10 +2343,10 @@
         <v>96</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2334,10 +2362,10 @@
         <v>97</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2345,13 +2373,13 @@
         <v>98</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2362,7 +2390,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2370,7 +2398,7 @@
         <v>0.9</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2378,7 +2406,7 @@
         <v>0.7</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2386,7 +2414,7 @@
         <v>0.5</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2394,7 +2422,7 @@
         <v>0.3</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -2442,13 +2470,13 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2456,7 +2484,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2469,17 +2497,17 @@
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2487,13 +2515,13 @@
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2501,10 +2529,10 @@
         <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2512,13 +2540,13 @@
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2526,10 +2554,10 @@
         <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2537,22 +2565,22 @@
         <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2560,16 +2588,16 @@
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2577,10 +2605,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2588,16 +2616,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="21" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2605,16 +2633,16 @@
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="24" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2622,10 +2650,10 @@
         <v>19</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
@@ -2633,7 +2661,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
@@ -2641,7 +2669,7 @@
         <v>0.7</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
@@ -2649,7 +2677,7 @@
         <v>0.3</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2681,13 +2709,13 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2695,7 +2723,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2708,7 +2736,7 @@
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2722,15 +2750,15 @@
         <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2738,13 +2766,13 @@
         <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2752,18 +2780,18 @@
         <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2771,16 +2799,16 @@
         <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2788,22 +2816,22 @@
         <v>24</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2811,13 +2839,13 @@
         <v>25</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2825,7 +2853,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2833,7 +2861,7 @@
         <v>0.7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2841,7 +2869,7 @@
         <v>0.3</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2879,13 +2907,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2914,10 +2942,10 @@
         <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2925,13 +2953,13 @@
         <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2939,19 +2967,19 @@
         <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2959,20 +2987,20 @@
         <v>33</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2980,10 +3008,10 @@
         <v>34</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2991,10 +3019,10 @@
         <v>35</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3003,7 +3031,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3011,7 +3039,7 @@
         <v>0.9</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3024,7 +3052,7 @@
         <v>0.3</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3059,7 +3087,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3097,13 +3125,13 @@
         <v>40</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3111,10 +3139,10 @@
         <v>41</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -3122,23 +3150,23 @@
         <v>42</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3146,20 +3174,20 @@
         <v>43</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3167,10 +3195,10 @@
         <v>44</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3178,10 +3206,10 @@
         <v>45</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3189,10 +3217,10 @@
         <v>46</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3201,7 +3229,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3209,7 +3237,7 @@
         <v>0.9</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3217,7 +3245,7 @@
         <v>0.3</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -3250,13 +3278,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3264,7 +3292,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3277,18 +3305,18 @@
     </row>
     <row r="4" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3302,10 +3330,10 @@
         <v>50</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3313,10 +3341,10 @@
         <v>51</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.15">
@@ -3324,13 +3352,13 @@
         <v>52</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3339,13 +3367,13 @@
         <v>53</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3354,13 +3382,13 @@
         <v>54</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3368,13 +3396,13 @@
         <v>55</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3382,19 +3410,19 @@
         <v>56</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="D16" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3402,10 +3430,10 @@
         <v>57</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3413,10 +3441,10 @@
         <v>58</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3426,7 +3454,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3434,7 +3462,7 @@
         <v>0.7</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3442,7 +3470,7 @@
         <v>0.3</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3478,7 +3506,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3533,13 +3561,13 @@
         <v>61</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3561,7 +3589,7 @@
         <v>63</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>51</v>
@@ -3584,10 +3612,10 @@
         <v>38</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3609,10 +3637,10 @@
         <v>66</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>44</v>
@@ -3626,7 +3654,7 @@
         <v>45</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3637,7 +3665,7 @@
         <v>46</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3645,10 +3673,10 @@
         <v>69</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3664,7 +3692,7 @@
         <v>0.9</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3672,7 +3700,7 @@
         <v>0.7</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3680,7 +3708,7 @@
         <v>0.3</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3707,13 +3735,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D1" s="1"/>
     </row>
@@ -3768,10 +3796,10 @@
         <v>60</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -3897,7 +3925,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -3947,7 +3975,7 @@
         <v>71</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -3961,7 +3989,7 @@
         <v>72</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>9</v>
@@ -3975,7 +4003,7 @@
         <v>73</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>15</v>

--- a/Documents/策划/BOSS设定.xlsx
+++ b/Documents/策划/BOSS设定.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -20,7 +20,7 @@
     <sheet name="欲望之神" sheetId="12" r:id="rId11"/>
     <sheet name="Sheet2" sheetId="14" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -320,949 +320,949 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>自爆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一次性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若位于爆炸之中,伤一血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向前一道抓击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗜血抓击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗜血抓击,不稳定化合物，知识就是力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转换光波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"一起下地狱吧！"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"错的不是我,是这个世界"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"感到恐惧了吗..呵呵.."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若击中,玩家血量-1,BOSS回复1血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物会随机使用获得的道具,或释放获得的技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>克隆并获得玩家使用过的道具,技能（永久)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在正统的爱尔兰民间传说中，出没于沉睡谷的无头骑士通常一手紧牵座下无头黑马的缰绳，另一只手则将自己的头颅抱在腰间。他的形象则被描述为“脸色和肤质像发了霉的乳酪，有一张大嘴和像苍蝇一般的大复眼，而当他遇到人类时会将成桶的血泼在他们身上（Monstropedia，2006）。在一些民间故事里他的座骑亡灵黑马拥有头颅，马头比马身还要长过6码（约5.49米），短耳，以及一双如火焰般燃烧的眼睛。在其它一些传说中无头骑士身边会跟随一群妖怪，如 banshee（中译“班西”），他们乘坐一辆由六匹黑马领头的拉车“ Coiste Bodhar”，用于驱赶马车的鞭子则由人类的脊髓作成。但是，无头骑士可以用于说话的力量极其有限，并且每次出巡他只有一次开口的机会，而在这仅有的机会中他会呼唤将死之人的名字并将其灵魂带走。</t>
+  </si>
+  <si>
+    <t>无头骑士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据玩家的方向,进行3段长距离的移动,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对途中生物造成1点伤害,并强制向前位移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在5秒内受到伤害大于X点时,释放‘无尽毁灭’</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS身后有3个他所珍惜的珠宝,玩家每破坏一个BOSS叠加一层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活之力/馈赠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动速度提高100%且不受控制技能影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀刃共鸣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动(身体）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋风击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转挥舞手中的长枪以保护自身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被击中将造成1点伤害并击飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤2把武器于身左和身右，模仿自己动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蹄踢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用长枪攻击面前敌人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当玩家位于其身后黑马会用蹄子将其踢飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动(头)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动(头)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漂浮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不受地形影响,移速提高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喷火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向前喷出火柱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不死</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果头还在则死不了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斩首</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对BOSS范围X码内的生物进行圆弧斩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被击中玩家则身体与头分离,玩家操控头,身体会跟随着头,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受击部位变为身体和头</t>
+  </si>
+  <si>
+    <t>旋风击,刺击,蹄踢,马术,不死</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放自己的头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发分离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涅槃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞羽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向四周发射自己的羽毛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科学怪人（科学）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原罪--懒惰Lazy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10s不移动,自伤1血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻魔之眼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪念&lt;&lt;圣斗士星矢&gt;&gt;"凤凰幻魔拳"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将玩家置于一个虚拟的房间中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击败全部小怪才可出幻境,血量真实扣除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛋有生命值,每次受伤会以其为中心,释放火圈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火圈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以己为中心释放一个逐渐变大的火环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碰到-1血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰吐息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以自己和玩家为直线连续释放3发火球,Xs后爆炸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在爆炸处产生3只小不死鸟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小不死鸟会锁定玩家,若接触,则发生爆炸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该房间为本关卡玩家伤血最多的房间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化身成蛋,在5/7/9秒内重新孵化成不死鸟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一次性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涅槃,飞羽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>啄击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通攻击,无效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得火圈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发幻魔之眼,获得火焰吐息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烈焰不死鸟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲锋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撕咬攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对前方进行撕咬（1到3下）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利爪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抬起爪子,向前方抓击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤血1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每下撕咬伤血1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血之气息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家每受一次伤害,三头犬攻速提高20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶魔体质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若5s内未受伤害,魔犬会舔舐伤口,每2s恢复1点血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲锋,撕咬攻击,利爪,血之气息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶魔体质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分裂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分成3头单头犬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一次性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发分裂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单头犬具有血之气息,利爪,撕咬攻击,冲锋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家移速攻速减半</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砸中减一血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对全屏幕生命体造成1点伤害,无法闪躲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每隔10s触发一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百万敲击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向前一道冲击波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击倒效果,伤一血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抵挡5点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每5秒触发一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>别打扰我！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机落下X块石头，位置随机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以自己为圆心释放冲击环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次击中,击退,第二次击中,击倒.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给予玩家一个3血护盾,在规定时间内不消失则移速/攻速-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗜睡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若血量在30%以上则进入睡眠状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颓靡光环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天降陨石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大地符文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颓靡光环，天降陨石，大地符文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦魇护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦魇护盾，岩石弹幕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百万敲击,护盾,别打扰我,失去梦魇护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一次性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有属性-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一下横击,一下竖击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>横击带硬直,竖击带击倒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>突然出现在玩家身后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伯爵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仆人们,别劳烦我动手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家将面临一堆看似弱小的杂兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂兵有BUFF:攻击力攻速移速血量提高200%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封印</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被傲慢击中,3s内无法攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变成混乱属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔑视光环,触发仆人们,别劳烦我动手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切割,闪现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂兵的血算在boss中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在被击中的位置留下一个幻影，1s后爆炸，自己移动到4个魔法阵之一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咏唱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4个魔法阵对应4个欲望类型,每个魔法阵会涌出相应类型的怪物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>觉醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击范围变大,伤害*2，移速-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆炸伤血1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向前方发出一串飓风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若被击中，则被吹到房间最角落</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔神枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害为1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>靠近哪个魔法阵,相应属性为一半</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邪能冲击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向前发射3波3道邪能火球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咏唱,幻影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杖击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近战攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔神击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害为1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强风,杖击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法阵之缚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据玩家位置,赐予魔法阵之缚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邪能冲击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欲望之神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤两块棱剑,迅速戳向玩家位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>觉醒,获得魔神枪和魔神击,失去杖击,邪能冲击，强风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害为1,击倒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换形态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>傲慢形态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪现,切割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>懒惰形态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岩石弹幕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百万敲击，岩石弹幕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴怒形态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无尽毁灭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三段斩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无尽毁灭,三段斩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死之力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漩涡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死之力,漩涡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪婪形态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自我化身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚空放逐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤神之柱,刺向玩家所在地面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺到玩家则玩家伤2血,未刺到地表被破坏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔火追击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每0.5s会有1团火焰从玩家脚下冒出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将玩家放逐到虚空，玩家将面对邪恶的自身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵魂灾变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽取玩家随机5块欲望精华,化身为相应怪物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>傲慢光环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔑视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若玩家位于傲慢背面3s,则触发晕眩2s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所经过的地方会留下1道邪能火痕,持续Xs消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邪能痕迹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得无尽毁灭,邪能痕迹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得仆从降临，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地狱三头犬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实力取决于玩家拥有精华数,影响血量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自我化身,魔火追击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发灵魂灾变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心灵尖刺，切换形态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心灵尖刺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每隔一段时间,boss会切换形态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放心中的魔神,类似须佐能乎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向前突进一段距离,并进行撕咬攻击,并击倒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻略方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罪在于不敢直面已发生的事情,从而选择逃避,放纵自己懒惰。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罪因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直面令自己恐惧的事情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原罪--暴食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吞噬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃去玩家一个BUFF，转为自身的BUFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在地上刻下懒惰符文的图案,玩家踩上去,踩到的图案会消失,若在规定时间内图案未全部消失,则按剩余百分比回复BOSS血量。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高100%的攻速和50%的移速,技能伤血*2,,,无限时长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高100%的攻速和50%的移速,无限时长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自我毁灭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激活狂暴后,自身生命力将随时间消亡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得真·狂暴，自我毁灭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无名无姓的怪物是弗兰肯斯坦从藏尸间盗来的人体的各个部分拼凑而成的。他的外表是它一切痛苦的根源。世人见它无一不被吓跑或攻击它；而它只能隐藏行迹，终日游离与人类社会之外。在怪物的自述中，对知识的追求不仅是其自身成长经历中不可或缺的部分，而且它与了解自身起源紧密联系起来。自从被弗兰肯斯坦遗弃后，身形高大、相貌丑陋的怪物在处处充满敌意的社会中举步维艰。可以说在最早的阶段他对世界的认知是被动的体验和接受，没有得到任何人的关照和监护。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发自爆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发畸变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>站在泥中,移速减慢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>每次受伤会在地上留下一道淤泥</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>站在泥中,移速减慢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自爆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一次性</t>
+    <t>自身形象改变,行动速度加快50%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>以自己为中心X码内发生爆炸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若位于爆炸之中,伤一血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自身形象改变,行动速度加快50%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>向前一道抓击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嗜血抓击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嗜血抓击,不稳定化合物，知识就是力量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>转换光波</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发畸变</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发自爆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>简介</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>语音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"一起下地狱吧！"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"错的不是我,是这个世界"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"感到恐惧了吗..呵呵.."</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若击中,玩家血量-1,BOSS回复1血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物会随机使用获得的道具,或释放获得的技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>克隆并获得玩家使用过的道具,技能（永久)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在正统的爱尔兰民间传说中，出没于沉睡谷的无头骑士通常一手紧牵座下无头黑马的缰绳，另一只手则将自己的头颅抱在腰间。他的形象则被描述为“脸色和肤质像发了霉的乳酪，有一张大嘴和像苍蝇一般的大复眼，而当他遇到人类时会将成桶的血泼在他们身上（Monstropedia，2006）。在一些民间故事里他的座骑亡灵黑马拥有头颅，马头比马身还要长过6码（约5.49米），短耳，以及一双如火焰般燃烧的眼睛。在其它一些传说中无头骑士身边会跟随一群妖怪，如 banshee（中译“班西”），他们乘坐一辆由六匹黑马领头的拉车“ Coiste Bodhar”，用于驱赶马车的鞭子则由人类的脊髓作成。但是，无头骑士可以用于说话的力量极其有限，并且每次出巡他只有一次开口的机会，而在这仅有的机会中他会呼唤将死之人的名字并将其灵魂带走。</t>
-  </si>
-  <si>
-    <t>无头骑士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>简介</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据玩家的方向,进行3段长距离的移动,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对途中生物造成1点伤害,并强制向前位移</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在5秒内受到伤害大于X点时,释放‘无尽毁灭’</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOSS身后有3个他所珍惜的珠宝,玩家每破坏一个BOSS叠加一层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活之力/馈赠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动速度提高100%且不受控制技能影响</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刀刃共鸣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主动(身体）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>旋风击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>旋转挥舞手中的长枪以保护自身</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被击中将造成1点伤害并击飞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤2把武器于身左和身右，模仿自己动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刺击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蹄踢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1点伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用长枪攻击面前敌人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当玩家位于其身后黑马会用蹄子将其踢飞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主动(头)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被动(头)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>漂浮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不受地形影响,移速提高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>喷火</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>向前喷出火柱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不死</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果头还在则死不了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斩首</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对BOSS范围X码内的生物进行圆弧斩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被击中玩家则身体与头分离,玩家操控头,身体会跟随着头,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>受击部位变为身体和头</t>
-  </si>
-  <si>
-    <t>旋风击,刺击,蹄踢,马术,不死</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分离</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>释放自己的头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发分离</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>涅槃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞羽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>向四周发射自己的羽毛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科学怪人（科学）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原罪--懒惰Lazy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10s不移动,自伤1血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幻魔之眼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纪念&lt;&lt;圣斗士星矢&gt;&gt;"凤凰幻魔拳"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将玩家置于一个虚拟的房间中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>击败全部小怪才可出幻境,血量真实扣除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蛋有生命值,每次受伤会以其为中心,释放火圈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火圈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以己为中心释放一个逐渐变大的火环</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>碰到-1血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火焰吐息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以自己和玩家为直线连续释放3发火球,Xs后爆炸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在爆炸处产生3只小不死鸟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小不死鸟会锁定玩家,若接触,则发生爆炸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该房间为本关卡玩家伤血最多的房间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>化身成蛋,在5/7/9秒内重新孵化成不死鸟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一次性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>涅槃,飞羽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>啄击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通攻击,无效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得火圈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发幻魔之眼,获得火焰吐息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烈焰不死鸟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冲锋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撕咬攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对前方进行撕咬（1到3下）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>利爪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抬起爪子,向前方抓击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤血1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每下撕咬伤血1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血之气息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家每受一次伤害,三头犬攻速提高20%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恶魔体质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若5s内未受伤害,魔犬会舔舐伤口,每2s恢复1点血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冲锋,撕咬攻击,利爪,血之气息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恶魔体质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分裂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分成3头单头犬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一次性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发分裂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单头犬具有血之气息,利爪,撕咬攻击,冲锋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家移速攻速减半</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>砸中减一血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对全屏幕生命体造成1点伤害,无法闪躲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每隔10s触发一次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百万敲击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>向前一道冲击波</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>击倒效果,伤一血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>护盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抵挡5点伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每5秒触发一次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>别打扰我！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机落下X块石头，位置随机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以自己为圆心释放冲击环</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一次击中,击退,第二次击中,击倒.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给予玩家一个3血护盾,在规定时间内不消失则移速/攻速-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嗜睡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若血量在30%以上则进入睡眠状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>颓靡光环</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天降陨石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大地符文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>颓靡光环，天降陨石，大地符文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梦魇护盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梦魇护盾，岩石弹幕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百万敲击,护盾,别打扰我,失去梦魇护盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一次性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>变身</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有属性-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>切割</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一下横击,一下竖击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>横击带硬直,竖击带击倒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>突然出现在玩家身后</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伯爵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仆人们,别劳烦我动手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家将面临一堆看似弱小的杂兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杂兵有BUFF:攻击力攻速移速血量提高200%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>封印</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被傲慢击中,3s内无法攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>变成混乱属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击力*2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蔑视光环,触发仆人们,别劳烦我动手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>切割,闪现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杂兵的血算在boss中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在被击中的位置留下一个幻影，1s后爆炸，自己移动到4个魔法阵之一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>咏唱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4个魔法阵对应4个欲望类型,每个魔法阵会涌出相应类型的怪物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>强风</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>觉醒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击范围变大,伤害*2，移速-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆炸伤血1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>向前方发出一串飓风</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若被击中，则被吹到房间最角落</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔神枪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害为1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>靠近哪个魔法阵,相应属性为一半</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邪能冲击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>向前发射3波3道邪能火球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>咏唱,幻影</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杖击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>近战攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔神击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害为1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>强风,杖击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔法阵之缚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据玩家位置,赐予魔法阵之缚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邪能冲击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欲望之神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤两块棱剑,迅速戳向玩家位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>觉醒,获得魔神枪和魔神击,失去杖击,邪能冲击，强风</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害为1,击倒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>切换形态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>傲慢形态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪现,切割</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>懒惰形态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>岩石弹幕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百万敲击，岩石弹幕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴怒形态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无尽毁灭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三段斩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无尽毁灭,三段斩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>死之力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>漩涡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>死之力,漩涡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贪婪形态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自我化身</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚空放逐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤神之柱,刺向玩家所在地面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刺到玩家则玩家伤2血,未刺到地表被破坏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔火追击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每0.5s会有1团火焰从玩家脚下冒出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将玩家放逐到虚空，玩家将面对邪恶的自身</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵魂灾变</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽取玩家随机5块欲望精华,化身为相应怪物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>傲慢光环</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蔑视</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若玩家位于傲慢背面3s,则触发晕眩2s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所经过的地方会留下1道邪能火痕,持续Xs消失</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邪能痕迹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得无尽毁灭,邪能痕迹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得仆从降临，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地狱三头犬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实力取决于玩家拥有精华数,影响血量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自我化身,魔火追击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发灵魂灾变</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>心灵尖刺，切换形态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>心灵尖刺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每隔一段时间,boss会切换形态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>释放心中的魔神,类似须佐能乎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>向前突进一段距离,并进行撕咬攻击,并击倒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻略方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>罪在于不敢直面已发生的事情,从而选择逃避,放纵自己懒惰。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>罪因</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>直面令自己恐惧的事情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原罪--暴食</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吞噬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吃去玩家一个BUFF，转为自身的BUFF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在地上刻下懒惰符文的图案,玩家踩上去,踩到的图案会消失,若在规定时间内图案未全部消失,则按剩余百分比回复BOSS血量。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提高100%的攻速和50%的移速,技能伤血*2,,,无限时长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提高100%的攻速和50%的移速,无限时长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自我毁灭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>激活狂暴后,自身生命力将随时间消亡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得真·狂暴，自我毁灭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无名无姓的怪物是弗兰肯斯坦从藏尸间盗来的人体的各个部分拼凑而成的。他的外表是它一切痛苦的根源。世人见它无一不被吓跑或攻击它；而它只能隐藏行迹，终日游离与人类社会之外。在怪物的自述中，对知识的追求不仅是其自身成长经历中不可或缺的部分，而且它与了解自身起源紧密联系起来。自从被弗兰肯斯坦遗弃后，身形高大、相貌丑陋的怪物在处处充满敌意的社会中举步维艰。可以说在最早的阶段他对世界的认知是被动的体验和接受，没有得到任何人的关照和监护。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1397,7 +1397,7 @@
     </a:clrScheme>
     <a:fontScheme name="Arial Black-Arial">
       <a:majorFont>
-        <a:latin typeface="Arial Black" panose="020B0A04020102020204"/>
+        <a:latin typeface="Arial Black"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
@@ -1432,7 +1432,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial" panose="020B0604020202020204"/>
+        <a:latin typeface="Arial"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1697,14 +1697,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="16.375" style="1" customWidth="1"/>
@@ -1717,21 +1717,21 @@
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="15" customHeight="1">
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1747,35 +1747,35 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="15" customHeight="1">
       <c r="B4" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1">
       <c r="B5" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1"/>
+    <row r="7" spans="1:5" ht="15" customHeight="1">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="15" customHeight="1">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="15" customHeight="1">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -1800,27 +1800,27 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="15" customHeight="1">
       <c r="A10" s="1">
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1"/>
+    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="1">
         <v>3</v>
       </c>
@@ -1828,30 +1828,30 @@
         <v>59</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="1">
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1"/>
+    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="1">
         <v>5</v>
       </c>
@@ -1859,13 +1859,13 @@
         <v>57</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="1">
         <v>6</v>
       </c>
@@ -1873,48 +1873,48 @@
         <v>63</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>64</v>
+        <v>296</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1"/>
+    <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="3">
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="3">
         <v>0.7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="3">
         <v>0.4</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="B23" s="3">
         <v>0.1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+        <v>293</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1"/>
+    <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1"/>
+    <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1923,14 +1923,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
@@ -1943,23 +1943,23 @@
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1">
       <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="15" customHeight="1">
       <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
@@ -1967,133 +1967,133 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="15" customHeight="1">
       <c r="B4" s="6"/>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="15" customHeight="1">
       <c r="B5" s="6"/>
     </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="15" customHeight="1">
       <c r="B6" s="6"/>
     </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="15" customHeight="1">
       <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="42.75" customHeight="1">
       <c r="A8" s="1">
         <v>80</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1">
       <c r="A9" s="1">
         <v>81</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1">
       <c r="A10" s="1">
         <v>83</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="1">
         <v>84</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="1">
         <v>85</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="1">
         <v>86</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="6"/>
     </row>
-    <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="1">
         <v>87</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="B17" s="6"/>
     </row>
-    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="B18" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" ht="47.25" customHeight="1">
       <c r="A19" s="1">
         <v>88</v>
       </c>
@@ -2101,59 +2101,59 @@
         <v>20</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="1">
         <v>89</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="5">
         <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="B23" s="5">
         <v>0.9</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="B24" s="5">
         <v>0.7</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="39.75" customHeight="1">
       <c r="B25" s="5">
         <v>0.3</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -2164,14 +2164,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
@@ -2184,23 +2184,23 @@
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1">
       <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="15" customHeight="1">
       <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
@@ -2208,193 +2208,193 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="15" customHeight="1">
       <c r="B4" s="6" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="15" customHeight="1">
       <c r="B5" s="6"/>
     </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="15" customHeight="1">
       <c r="B6" s="6"/>
     </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="15" customHeight="1">
       <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="42.75" customHeight="1">
       <c r="B8" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1">
       <c r="A9" s="1">
         <v>90</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1">
       <c r="A10" s="1">
         <v>91</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="1">
         <v>92</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="1">
         <v>93</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="1">
         <v>94</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="1">
         <v>95</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="33" customHeight="1">
       <c r="B15" s="6"/>
     </row>
-    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="1">
         <v>96</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="B18" s="6"/>
     </row>
-    <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="B19" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" ht="24" customHeight="1">
       <c r="A20" s="1">
         <v>97</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="1">
         <v>98</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="B23" s="5">
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="B24" s="5">
         <v>0.9</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="B25" s="5">
         <v>0.7</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="B26" s="5">
         <v>0.5</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="B27" s="5">
         <v>0.3</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -2405,14 +2405,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2420,14 +2420,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="16.375" style="1" customWidth="1"/>
@@ -2440,26 +2440,26 @@
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1">
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2467,189 +2467,189 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="15" customHeight="1">
       <c r="B4" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1"/>
+    <row r="6" spans="1:5" ht="15" customHeight="1"/>
+    <row r="7" spans="1:5" ht="15" customHeight="1">
       <c r="B7" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1">
       <c r="A8" s="1">
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1">
       <c r="A9" s="1">
         <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1">
       <c r="A10" s="1">
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="1">
         <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="1">
         <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1"/>
+    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="1">
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1"/>
+    <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="B17" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1"/>
+    <row r="21" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="1">
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="24" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="20.100000000000001" customHeight="1"/>
+    <row r="24" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="B24" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="1">
         <v>19</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="B28" s="3">
         <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="B29" s="3">
         <v>0.7</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="B30" s="3">
         <v>0.3</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2660,14 +2660,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="16.375" style="1" customWidth="1"/>
@@ -2679,26 +2679,26 @@
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1">
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2706,149 +2706,149 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="15" customHeight="1">
       <c r="B4" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1"/>
+    <row r="6" spans="1:5" ht="15" customHeight="1">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="15" customHeight="1">
       <c r="A7" s="1">
         <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="C8" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="1">
         <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="1">
         <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="C11" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="1">
         <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1"/>
+    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" customHeight="1">
       <c r="A15" s="1">
         <v>24</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1"/>
+    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="B17" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="1">
         <v>25</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="B19" s="3">
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="3">
         <v>0.7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="3">
         <v>0.3</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1"/>
+    <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1"/>
+    <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1"/>
+    <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1"/>
+    <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2857,14 +2857,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="16.375" style="1" customWidth="1"/>
@@ -2877,23 +2877,23 @@
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="15" customHeight="1">
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2901,134 +2901,134 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="15" customHeight="1"/>
+    <row r="5" spans="1:4" ht="15" customHeight="1"/>
+    <row r="6" spans="1:4" ht="15" customHeight="1"/>
+    <row r="7" spans="1:4" ht="15" customHeight="1">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="15" customHeight="1">
       <c r="A8" s="1">
         <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1">
       <c r="A9" s="1">
         <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1">
       <c r="A10" s="1">
         <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" customHeight="1"/>
+    <row r="12" spans="1:4" ht="15" customHeight="1">
       <c r="B12" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="1">
         <v>33</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1"/>
+    <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1"/>
+    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="32.25" customHeight="1">
       <c r="A17" s="1">
         <v>34</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="38.25" customHeight="1">
       <c r="A18" s="1">
         <v>35</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1"/>
+    <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="3">
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="3">
         <v>0.9</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="3">
         <v>0.7</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="B23" s="3">
         <v>0.3</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="20.100000000000001" customHeight="1"/>
+    <row r="25" spans="1:3" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3037,14 +3037,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="23.125" style="1" customWidth="1"/>
@@ -3057,9 +3057,9 @@
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3068,7 +3068,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="15" customHeight="1">
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
@@ -3084,140 +3084,140 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="15" customHeight="1"/>
+    <row r="5" spans="1:5" ht="15" customHeight="1"/>
+    <row r="6" spans="1:5" ht="15" customHeight="1"/>
+    <row r="7" spans="1:5" ht="15" customHeight="1">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="15" customHeight="1">
       <c r="A8" s="1">
         <v>40</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1">
       <c r="A9" s="1">
         <v>41</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="24" customHeight="1">
       <c r="A10" s="1">
         <v>42</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1"/>
+    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1"/>
+    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="1">
         <v>43</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1"/>
+    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1"/>
+    <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="B17" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="1">
         <v>44</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="1">
         <v>45</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="19.5" customHeight="1">
       <c r="A20" s="1">
         <v>46</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="19.5" customHeight="1"/>
+    <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="3">
         <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="B23" s="3">
         <v>0.9</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="B24" s="3">
         <v>0.3</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -3228,14 +3228,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="16.375" style="1" customWidth="1"/>
@@ -3248,26 +3248,26 @@
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1">
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
@@ -3275,179 +3275,179 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="39.950000000000003" customHeight="1">
       <c r="B4" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1">
       <c r="B5" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1"/>
+    <row r="7" spans="1:4" ht="15" customHeight="1">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="39" customHeight="1">
       <c r="A8" s="1">
         <v>50</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="52.5" customHeight="1">
       <c r="A9" s="1">
         <v>51</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="51" customHeight="1">
       <c r="A10" s="1">
         <v>52</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1"/>
+    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="1">
         <v>53</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1"/>
+    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="1">
         <v>54</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="1">
         <v>55</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="1">
         <v>56</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1"/>
+    <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="B18" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="1">
         <v>57</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="1">
         <v>58</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="23" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="20.100000000000001" customHeight="1"/>
+    <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1"/>
+    <row r="23" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="B23" s="3">
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="B24" s="3">
         <v>0.7</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="B25" s="3">
         <v>0.3</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="20.100000000000001" customHeight="1"/>
+    <row r="27" spans="1:3" ht="20.100000000000001" customHeight="1"/>
+    <row r="28" spans="1:3" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3456,14 +3456,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="16.375" style="1" customWidth="1"/>
@@ -3476,9 +3476,9 @@
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="15" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="15" customHeight="1">
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
@@ -3506,15 +3506,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="15" customHeight="1"/>
+    <row r="5" spans="1:4" ht="15" customHeight="1"/>
+    <row r="6" spans="1:4" ht="15" customHeight="1"/>
+    <row r="7" spans="1:4" ht="15" customHeight="1">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="15" customHeight="1">
       <c r="A8" s="1">
         <v>60</v>
       </c>
@@ -3528,21 +3528,21 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="15" customHeight="1">
       <c r="A9" s="1">
         <v>61</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1">
       <c r="A10" s="1">
         <v>62</v>
       </c>
@@ -3556,12 +3556,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="1">
         <v>63</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>51</v>
@@ -3570,13 +3570,13 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1"/>
+    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="1">
         <v>64</v>
       </c>
@@ -3584,13 +3584,13 @@
         <v>38</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="1">
         <v>65</v>
       </c>
@@ -3604,21 +3604,21 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="1">
         <v>66</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="1">
         <v>67</v>
       </c>
@@ -3626,10 +3626,10 @@
         <v>45</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="1">
         <v>68</v>
       </c>
@@ -3637,21 +3637,21 @@
         <v>46</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="1">
         <v>69</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="3">
         <v>1</v>
       </c>
@@ -3659,31 +3659,31 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="3">
         <v>0.9</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="3">
         <v>0.7</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="B23" s="3">
         <v>0.3</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+        <v>291</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3692,32 +3692,32 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="A16:D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="32.5" customWidth="1"/>
     <col min="4" max="4" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="27">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -3727,7 +3727,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>6</v>
@@ -3737,25 +3737,25 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
@@ -3763,19 +3763,19 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="27">
       <c r="A8" s="1">
         <v>60</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>61</v>
       </c>
@@ -3783,7 +3783,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>62</v>
       </c>
@@ -3791,7 +3791,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>63</v>
       </c>
@@ -3799,13 +3799,13 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>13</v>
@@ -3813,55 +3813,55 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4">
       <c r="A19" s="1"/>
       <c r="B19" s="3"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4">
       <c r="A20" s="1"/>
       <c r="B20" s="3"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4">
       <c r="A21" s="1"/>
       <c r="B21" s="3"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4">
       <c r="A22" s="1"/>
       <c r="B22" s="3"/>
       <c r="C22" s="1"/>
@@ -3875,14 +3875,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
@@ -3895,9 +3895,9 @@
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="15" customHeight="1">
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="15" customHeight="1">
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
@@ -3925,29 +3925,29 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="15" customHeight="1">
       <c r="B4" s="4"/>
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="15" customHeight="1">
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="15" customHeight="1">
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="15" customHeight="1">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="15" customHeight="1">
       <c r="A8" s="1">
         <v>71</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -3956,12 +3956,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="15" customHeight="1">
       <c r="A9" s="1">
         <v>72</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>9</v>
@@ -3970,12 +3970,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="15" customHeight="1">
       <c r="A10" s="1">
         <v>73</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>15</v>
@@ -3984,7 +3984,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="1">
         <v>74</v>
       </c>
@@ -3998,15 +3998,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="36.75" customHeight="1">
       <c r="A14" s="1">
         <v>75</v>
       </c>
@@ -4020,12 +4020,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="36.75" customHeight="1">
       <c r="A16" s="1">
         <v>76</v>
       </c>
@@ -4036,7 +4036,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="1">
         <v>77</v>
       </c>
@@ -4047,10 +4047,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="B19" s="5">
         <v>1</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="5">
         <v>0.9</v>
       </c>
@@ -4066,7 +4066,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="5">
         <v>0.7</v>
       </c>
@@ -4074,7 +4074,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="5">
         <v>0.3</v>
       </c>

--- a/Documents/策划/BOSS设定.xlsx
+++ b/Documents/策划/BOSS设定.xlsx
@@ -1724,7 +1724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -2447,7 +2447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -3255,7 +3255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -3483,7 +3483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -3902,8 +3902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
